--- a/shortage date prediction/products_linear_consumption.xlsx
+++ b/shortage date prediction/products_linear_consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUF Gaming\OneDrive - НИТУ МИСиС\Документы\Учеба\7 семестр\МРПО\Проект\Датасеты\linear consumption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimak\PycharmProjects\UnivercityProjects\software-service-project\shortage date prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922404D0-4B2D-4916-9417-6DE77490E430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F432EA93-F172-4477-9E43-3B95818E0B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,10 +96,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,7 +117,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -842,643 +842,643 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2344</c:v>
+                  <c:v>2388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2260</c:v>
+                  <c:v>2296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2226</c:v>
+                  <c:v>2257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2150</c:v>
+                  <c:v>2220</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2085</c:v>
+                  <c:v>2137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022</c:v>
+                  <c:v>2105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1936</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1820</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1741</c:v>
+                  <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1672</c:v>
+                  <c:v>1863</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1606</c:v>
+                  <c:v>1774</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1594</c:v>
+                  <c:v>1696</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1577</c:v>
+                  <c:v>1629</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1494</c:v>
+                  <c:v>1529</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1373</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1315</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1260</c:v>
+                  <c:v>1304</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1192</c:v>
+                  <c:v>1252</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1167</c:v>
+                  <c:v>1174</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1108</c:v>
+                  <c:v>1127</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1049</c:v>
+                  <c:v>1046</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>998</c:v>
+                  <c:v>1022</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>926</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>890</c:v>
+                  <c:v>882</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>875</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>810</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>705</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>661</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>630</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>576</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>553</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>501</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>474</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>426</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>363</c:v>
+                  <c:v>2087</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>257</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>160</c:v>
+                  <c:v>1925</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2596</c:v>
+                  <c:v>1884</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2553</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2463</c:v>
+                  <c:v>1744</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2434</c:v>
+                  <c:v>1646</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2352</c:v>
+                  <c:v>1587</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2289</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2212</c:v>
+                  <c:v>1439</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2608</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2365</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2286</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2157</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1696</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1617</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1503</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3129</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3028</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2882</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2824</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2662</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2484</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2421</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>2107</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>2053</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1908</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1855</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1748</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1709</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1606</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1539</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1485</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1397</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1306</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1263</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1182</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1131</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>844</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>767</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>658</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>593</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>531</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2908</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2819</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2736</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2620</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2549</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2515</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2388</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2333</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2232</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2142</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2081</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1924</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1827</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1673</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1589</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1491</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1373</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1264</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1219</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1095</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1053</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>974</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>691</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>635</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>529</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2656</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2538</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2497</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2420</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2332</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2278</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2212</c:v>
-                </c:pt>
                 <c:pt idx="115">
-                  <c:v>2115</c:v>
+                  <c:v>2062</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2033</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1945</c:v>
+                  <c:v>1954</c:v>
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1820</c:v>
+                  <c:v>1799</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1760</c:v>
+                  <c:v>1701</c:v>
                 </c:pt>
                 <c:pt idx="121">
+                  <c:v>1657</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1354</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1257</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1059</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2677</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2411</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2215</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2142</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1838</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1736</c:v>
+                </c:pt>
+                <c:pt idx="162">
                   <c:v>1709</c:v>
                 </c:pt>
-                <c:pt idx="122">
-                  <c:v>1629</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1548</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1512</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1483</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1427</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1334</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1216</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1113</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1047</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>959</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>906</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>847</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>743</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>686</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>484</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>419</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2180</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2101</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2058</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1906</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1871</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1817</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1731</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1634</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1537</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1451</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1392</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1331</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1261</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1187</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1102</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1034</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>919</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>856</c:v>
-                </c:pt>
                 <c:pt idx="163">
-                  <c:v>783</c:v>
+                  <c:v>1593</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>707</c:v>
+                  <c:v>1553</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>643</c:v>
+                  <c:v>1469</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>594</c:v>
+                  <c:v>1419</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>541</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>483</c:v>
+                  <c:v>1282</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>384</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>295</c:v>
+                  <c:v>1197</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>272</c:v>
+                  <c:v>1129</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>171</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="173">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2167</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="187">
                   <c:v>2075</c:v>
                 </c:pt>
-                <c:pt idx="174">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1957</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1890</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1866</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1847</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1781</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1725</c:v>
-                </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="188">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1882</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1784</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="193">
                   <c:v>1658</c:v>
                 </c:pt>
-                <c:pt idx="182">
-                  <c:v>1577</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1514</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1483</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1449</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1367</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1279</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1167</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>973</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>902</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>837</c:v>
-                </c:pt>
                 <c:pt idx="194">
-                  <c:v>796</c:v>
+                  <c:v>1579</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>735</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>686</c:v>
+                  <c:v>1436</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>627</c:v>
+                  <c:v>1336</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>595</c:v>
+                  <c:v>1254</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>510</c:v>
+                  <c:v>1157</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>415</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>314</c:v>
+                  <c:v>991</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>262</c:v>
+                  <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>172</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2617</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2557</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2514</c:v>
+                  <c:v>623</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2452</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2369</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2305</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2208</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2187</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2148</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2111</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1679,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1891,91 +1891,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2344</c:v>
+                  <c:v>2388</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2260</c:v>
+                  <c:v>2296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2226</c:v>
+                  <c:v>2257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2150</c:v>
+                  <c:v>2220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2085</c:v>
+                  <c:v>2137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2022</c:v>
+                  <c:v>2105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1936</c:v>
+                  <c:v>2057</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1820</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1741</c:v>
+                  <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1672</c:v>
+                  <c:v>1863</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1606</c:v>
+                  <c:v>1774</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1594</c:v>
+                  <c:v>1696</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1577</c:v>
+                  <c:v>1629</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1494</c:v>
+                  <c:v>1529</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1373</c:v>
+                  <c:v>1433</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1315</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1260</c:v>
+                  <c:v>1304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1192</c:v>
+                  <c:v>1252</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1167</c:v>
+                  <c:v>1174</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1108</c:v>
+                  <c:v>1127</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1049</c:v>
+                  <c:v>1046</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>998</c:v>
+                  <c:v>1022</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>926</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>890</c:v>
+                  <c:v>882</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>875</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>810</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>705</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>661</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>630</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3629,7 +3629,7 @@
   <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="N205" sqref="N205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)</f>
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <f>$M$1</f>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="F2">
         <f ca="1">B2-C2+E2</f>
-        <v>2344</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3700,11 +3700,11 @@
       </c>
       <c r="B3">
         <f ca="1">F2</f>
-        <v>2344</v>
+        <v>2388</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)</f>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <f>$M$1</f>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F61" ca="1" si="2">B3-C3+E3</f>
-        <v>2260</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3725,11 +3725,11 @@
       </c>
       <c r="B4">
         <f ca="1">F3</f>
-        <v>2260</v>
+        <v>2296</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <f>$M$1</f>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>2226</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -3750,11 +3750,11 @@
       </c>
       <c r="B5">
         <f ca="1">F4</f>
-        <v>2226</v>
+        <v>2257</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <f>$M$1</f>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>2150</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -3775,11 +3775,11 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B29" ca="1" si="3">F5</f>
-        <v>2150</v>
+        <v>2220</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D69" si="4">$M$1</f>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>2085</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -3800,11 +3800,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>2085</v>
+        <v>2137</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <f t="shared" si="4"/>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>2022</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -3825,11 +3825,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>2022</v>
+        <v>2105</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <f t="shared" si="4"/>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>1936</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -3850,11 +3850,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>1936</v>
+        <v>2057</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>1820</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>1820</v>
+        <v>2004</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>1741</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -3900,11 +3900,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>1741</v>
+        <v>1913</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>1672</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -3925,11 +3925,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>1672</v>
+        <v>1863</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <f t="shared" si="4"/>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>1606</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -3950,11 +3950,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
-        <v>1606</v>
+        <v>1774</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>1594</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -3975,11 +3975,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>1594</v>
+        <v>1696</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>1577</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -4000,11 +4000,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
-        <v>1577</v>
+        <v>1629</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>1494</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -4025,11 +4025,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>1494</v>
+        <v>1529</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>1373</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4050,11 +4050,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
-        <v>1373</v>
+        <v>1433</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>1315</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4075,11 +4075,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>1315</v>
+        <v>1363</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>1260</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4100,11 +4100,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>1260</v>
+        <v>1304</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>1192</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4125,11 +4125,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>1192</v>
+        <v>1252</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D20">
         <f t="shared" si="4"/>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>1167</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4150,11 +4150,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>1167</v>
+        <v>1174</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <f t="shared" si="4"/>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>1108</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4175,11 +4175,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>1108</v>
+        <v>1127</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <f t="shared" si="4"/>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4200,11 +4200,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <f t="shared" si="4"/>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>998</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4225,11 +4225,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>998</v>
+        <v>1022</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <f t="shared" si="4"/>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>926</v>
+        <v>965</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4250,11 +4250,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>926</v>
+        <v>965</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <f t="shared" si="4"/>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4275,11 +4275,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="3"/>
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>875</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4300,11 +4300,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
-        <v>875</v>
+        <v>770</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>810</v>
+        <v>716</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>810</v>
+        <v>716</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>705</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4350,11 +4350,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>705</v>
+        <v>637</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>661</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4374,12 +4374,12 @@
         <v>45351</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:B93" ca="1" si="5">F29</f>
-        <v>661</v>
+        <f t="shared" ref="B30:B58" ca="1" si="5">F29</f>
+        <v>565</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>630</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4400,11 +4400,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="5"/>
-        <v>630</v>
+        <v>466</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>576</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4425,11 +4425,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="5"/>
-        <v>576</v>
+        <v>420</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <f t="shared" si="4"/>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>553</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -4450,11 +4450,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="5"/>
-        <v>553</v>
+        <v>360</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>501</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4475,11 +4475,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="5"/>
-        <v>501</v>
+        <v>310</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D34">
         <f t="shared" si="4"/>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>474</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -4500,11 +4500,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="5"/>
-        <v>474</v>
+        <v>278</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>426</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4525,11 +4525,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="5"/>
-        <v>426</v>
+        <v>185</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
@@ -4537,11 +4537,11 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>363</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -4550,11 +4550,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="5"/>
-        <v>363</v>
+        <v>2087</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>257</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -4575,11 +4575,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="5"/>
-        <v>257</v>
+        <v>2007</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>160</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4600,11 +4600,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="5"/>
-        <v>160</v>
+        <v>1925</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
@@ -4612,11 +4612,11 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>2596</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4625,11 +4625,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="5"/>
-        <v>2596</v>
+        <v>1884</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>2553</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="5"/>
-        <v>2553</v>
+        <v>1789</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>2463</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4675,11 +4675,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="5"/>
-        <v>2463</v>
+        <v>1744</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>2434</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -4700,11 +4700,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="5"/>
-        <v>2434</v>
+        <v>1646</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>2352</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -4725,11 +4725,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="5"/>
-        <v>2352</v>
+        <v>1587</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>2289</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4750,11 +4750,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="5"/>
-        <v>2289</v>
+        <v>1506</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>2212</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -4775,11 +4775,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="5"/>
-        <v>2212</v>
+        <v>1439</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>2107</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4800,11 +4800,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="5"/>
-        <v>2107</v>
+        <v>1389</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>2053</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4825,11 +4825,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="5"/>
-        <v>2053</v>
+        <v>1317</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>1975</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -4850,11 +4850,11 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="5"/>
-        <v>1975</v>
+        <v>1255</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>1908</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4875,11 +4875,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="5"/>
-        <v>1908</v>
+        <v>1196</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D50">
         <f t="shared" si="4"/>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>1855</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4900,11 +4900,11 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="5"/>
-        <v>1855</v>
+        <v>1115</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D51">
         <f t="shared" si="4"/>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>1748</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4925,11 +4925,11 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="5"/>
-        <v>1748</v>
+        <v>1061</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D52">
         <f t="shared" si="4"/>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>1709</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4950,11 +4950,11 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="5"/>
-        <v>1709</v>
+        <v>1011</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D53">
         <f t="shared" si="4"/>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>1606</v>
+        <v>913</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -4975,11 +4975,11 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="5"/>
-        <v>1606</v>
+        <v>913</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D54">
         <f t="shared" si="4"/>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>1539</v>
+        <v>798</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5000,11 +5000,11 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="5"/>
-        <v>1539</v>
+        <v>798</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D55">
         <f t="shared" si="4"/>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>1485</v>
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5025,11 +5025,11 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="5"/>
-        <v>1485</v>
+        <v>735</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <f t="shared" si="4"/>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>1397</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5050,11 +5050,11 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="5"/>
-        <v>1397</v>
+        <v>662</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <f t="shared" si="4"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>1306</v>
+        <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5075,11 +5075,11 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="5"/>
-        <v>1306</v>
+        <v>598</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D58">
         <f t="shared" si="4"/>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>1263</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5100,11 +5100,11 @@
       </c>
       <c r="B59">
         <f t="shared" ref="B59:B61" ca="1" si="6">F58</f>
-        <v>1263</v>
+        <v>509</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D59">
         <f t="shared" si="4"/>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>1182</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -5125,11 +5125,11 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="6"/>
-        <v>1182</v>
+        <v>435</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D60">
         <f t="shared" si="4"/>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>1131</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5150,11 +5150,11 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="6"/>
-        <v>1131</v>
+        <v>399</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D61">
         <f t="shared" si="4"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>1029</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5175,11 +5175,11 @@
       </c>
       <c r="B62">
         <f t="shared" ref="B62:B125" ca="1" si="7">F61</f>
-        <v>1029</v>
+        <v>328</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D62">
         <f t="shared" si="4"/>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="F62">
         <f t="shared" ref="F62:F125" ca="1" si="8">B62-C62+E62</f>
-        <v>940</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5200,11 +5200,11 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="7"/>
-        <v>940</v>
+        <v>249</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D63">
         <f t="shared" si="4"/>
@@ -5212,11 +5212,11 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>844</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5225,11 +5225,11 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="7"/>
-        <v>844</v>
+        <v>2682</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D64">
         <f t="shared" si="4"/>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>767</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5250,11 +5250,11 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="7"/>
-        <v>767</v>
+        <v>2608</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D65">
         <f t="shared" si="4"/>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
-        <v>708</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5275,11 +5275,11 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="7"/>
-        <v>708</v>
+        <v>2521</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <f t="shared" si="4"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
-        <v>658</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5300,11 +5300,11 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="7"/>
-        <v>658</v>
+        <v>2458</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" ca="1" si="9">RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)</f>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D67">
         <f t="shared" si="4"/>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>593</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -5325,11 +5325,11 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="7"/>
-        <v>593</v>
+        <v>2365</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>531</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -5350,11 +5350,11 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="7"/>
-        <v>531</v>
+        <v>2286</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="8"/>
-        <v>487</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5375,11 +5375,11 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="7"/>
-        <v>487</v>
+        <v>2204</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D70">
         <f t="shared" ref="D70:D133" si="11">$M$1</f>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>400</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -5400,11 +5400,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="7"/>
-        <v>400</v>
+        <v>2157</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D71">
         <f t="shared" si="11"/>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>329</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -5425,11 +5425,11 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="7"/>
-        <v>329</v>
+        <v>2073</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="9"/>
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D72">
         <f t="shared" si="11"/>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
-        <v>217</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -5450,11 +5450,11 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="7"/>
-        <v>217</v>
+        <v>1985</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D73">
         <f t="shared" si="11"/>
@@ -5462,11 +5462,11 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="10"/>
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>2908</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -5475,11 +5475,11 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="7"/>
-        <v>2908</v>
+        <v>1896</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D74">
         <f t="shared" si="11"/>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>2819</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -5500,11 +5500,11 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="7"/>
-        <v>2819</v>
+        <v>1862</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D75">
         <f t="shared" si="11"/>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>2736</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -5525,11 +5525,11 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="7"/>
-        <v>2736</v>
+        <v>1806</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="9"/>
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D76">
         <f t="shared" si="11"/>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>2620</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5550,11 +5550,11 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="7"/>
-        <v>2620</v>
+        <v>1734</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D77">
         <f t="shared" si="11"/>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>2549</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="7"/>
-        <v>2549</v>
+        <v>1696</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D78">
         <f t="shared" si="11"/>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>2515</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -5600,11 +5600,11 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="7"/>
-        <v>2515</v>
+        <v>1668</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="9"/>
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="D79">
         <f t="shared" si="11"/>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>2388</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -5625,11 +5625,11 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="7"/>
-        <v>2388</v>
+        <v>1617</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D80">
         <f t="shared" si="11"/>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
-        <v>2333</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -5650,11 +5650,11 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="7"/>
-        <v>2333</v>
+        <v>1537</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="9"/>
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="D81">
         <f t="shared" si="11"/>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>2232</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -5675,11 +5675,11 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="7"/>
-        <v>2232</v>
+        <v>1503</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D82">
         <f t="shared" si="11"/>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>2142</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5700,11 +5700,11 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="7"/>
-        <v>2142</v>
+        <v>1434</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D83">
         <f t="shared" si="11"/>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>2081</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -5725,11 +5725,11 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="7"/>
-        <v>2081</v>
+        <v>1359</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D84">
         <f t="shared" si="11"/>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>2001</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5750,11 +5750,11 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="7"/>
-        <v>2001</v>
+        <v>1305</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D85">
         <f t="shared" si="11"/>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>1924</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5775,11 +5775,11 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="7"/>
-        <v>1924</v>
+        <v>1258</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D86">
         <f t="shared" si="11"/>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>1827</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -5800,11 +5800,11 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="7"/>
-        <v>1827</v>
+        <v>1188</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D87">
         <f t="shared" si="11"/>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>1750</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -5825,11 +5825,11 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="7"/>
-        <v>1750</v>
+        <v>1132</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D88">
         <f t="shared" si="11"/>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>1673</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5850,11 +5850,11 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="7"/>
-        <v>1673</v>
+        <v>1047</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D89">
         <f t="shared" si="11"/>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
-        <v>1589</v>
+        <v>973</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5875,11 +5875,11 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="7"/>
-        <v>1589</v>
+        <v>973</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D90">
         <f t="shared" si="11"/>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>1491</v>
+        <v>899</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5900,11 +5900,11 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="7"/>
-        <v>1491</v>
+        <v>899</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="9"/>
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="D91">
         <f t="shared" si="11"/>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>1373</v>
+        <v>871</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -5925,11 +5925,11 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="7"/>
-        <v>1373</v>
+        <v>871</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="9"/>
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D92">
         <f t="shared" si="11"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="8"/>
-        <v>1264</v>
+        <v>781</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5950,11 +5950,11 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="7"/>
-        <v>1264</v>
+        <v>781</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D93">
         <f t="shared" si="11"/>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>1219</v>
+        <v>723</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5975,11 +5975,11 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="7"/>
-        <v>1219</v>
+        <v>723</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="9"/>
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="D94">
         <f t="shared" si="11"/>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
-        <v>1095</v>
+        <v>660</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -6000,11 +6000,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="7"/>
-        <v>1095</v>
+        <v>660</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D95">
         <f t="shared" si="11"/>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>1053</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -6025,11 +6025,11 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="7"/>
-        <v>1053</v>
+        <v>640</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D96">
         <f t="shared" si="11"/>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>974</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6050,11 +6050,11 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="7"/>
-        <v>974</v>
+        <v>575</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D97">
         <f t="shared" si="11"/>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="8"/>
-        <v>890</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6075,11 +6075,11 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="7"/>
-        <v>890</v>
+        <v>508</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D98">
         <f t="shared" si="11"/>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>805</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6100,11 +6100,11 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="7"/>
-        <v>805</v>
+        <v>386</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="9"/>
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D99">
         <f t="shared" si="11"/>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>691</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6125,11 +6125,11 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>691</v>
+        <v>301</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D100">
         <f t="shared" si="11"/>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="8"/>
-        <v>635</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6150,11 +6150,11 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>635</v>
+        <v>221</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D101">
         <f t="shared" si="11"/>
@@ -6162,11 +6162,11 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="8"/>
-        <v>588</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -6175,11 +6175,11 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="7"/>
-        <v>588</v>
+        <v>3129</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="D102">
         <f t="shared" si="11"/>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="8"/>
-        <v>551</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -6200,11 +6200,11 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="7"/>
-        <v>551</v>
+        <v>3028</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D103">
         <f t="shared" si="11"/>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="8"/>
-        <v>529</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -6225,11 +6225,11 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="7"/>
-        <v>529</v>
+        <v>2972</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D104">
         <f t="shared" si="11"/>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="8"/>
-        <v>467</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -6250,11 +6250,11 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="7"/>
-        <v>467</v>
+        <v>2882</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D105">
         <f t="shared" si="11"/>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="8"/>
-        <v>368</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -6275,11 +6275,11 @@
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="7"/>
-        <v>368</v>
+        <v>2824</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D106">
         <f t="shared" si="11"/>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="8"/>
-        <v>293</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -6300,11 +6300,11 @@
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="7"/>
-        <v>293</v>
+        <v>2769</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D107">
         <f t="shared" si="11"/>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="8"/>
-        <v>210</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -6325,11 +6325,11 @@
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="7"/>
-        <v>210</v>
+        <v>2662</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D108">
         <f t="shared" si="11"/>
@@ -6337,11 +6337,11 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="10"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="8"/>
-        <v>2656</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6350,11 +6350,11 @@
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="7"/>
-        <v>2656</v>
+        <v>2610</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D109">
         <f t="shared" si="11"/>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="8"/>
-        <v>2600</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6375,11 +6375,11 @@
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="7"/>
-        <v>2600</v>
+        <v>2556</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D110">
         <f t="shared" si="11"/>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="8"/>
-        <v>2538</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -6400,11 +6400,11 @@
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="7"/>
-        <v>2538</v>
+        <v>2484</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D111">
         <f t="shared" si="11"/>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="8"/>
-        <v>2497</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6425,11 +6425,11 @@
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="7"/>
-        <v>2497</v>
+        <v>2421</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D112">
         <f t="shared" si="11"/>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="8"/>
-        <v>2420</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -6450,11 +6450,11 @@
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="7"/>
-        <v>2420</v>
+        <v>2336</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D113">
         <f t="shared" si="11"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="8"/>
-        <v>2332</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -6475,11 +6475,11 @@
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="7"/>
-        <v>2332</v>
+        <v>2279</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D114">
         <f t="shared" si="11"/>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="8"/>
-        <v>2278</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -6500,11 +6500,11 @@
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="7"/>
-        <v>2278</v>
+        <v>2218</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D115">
         <f t="shared" si="11"/>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="8"/>
-        <v>2212</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -6525,11 +6525,11 @@
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="7"/>
-        <v>2212</v>
+        <v>2107</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="D116">
         <f t="shared" si="11"/>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="8"/>
-        <v>2115</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -6550,11 +6550,11 @@
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="7"/>
-        <v>2115</v>
+        <v>2062</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D117">
         <f t="shared" si="11"/>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="8"/>
-        <v>2033</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="7"/>
-        <v>2033</v>
+        <v>2042</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="9"/>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="8"/>
-        <v>1945</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -6600,11 +6600,11 @@
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="7"/>
-        <v>1945</v>
+        <v>1954</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D119">
         <f t="shared" si="11"/>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D120">
         <f t="shared" si="11"/>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="8"/>
-        <v>1820</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -6650,11 +6650,11 @@
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="7"/>
-        <v>1820</v>
+        <v>1799</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D121">
         <f t="shared" si="11"/>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="8"/>
-        <v>1760</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -6675,11 +6675,11 @@
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="7"/>
-        <v>1760</v>
+        <v>1701</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D122">
         <f t="shared" si="11"/>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="8"/>
-        <v>1709</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -6700,11 +6700,11 @@
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="7"/>
-        <v>1709</v>
+        <v>1657</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D123">
         <f t="shared" si="11"/>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="8"/>
-        <v>1629</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -6725,11 +6725,11 @@
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="7"/>
-        <v>1629</v>
+        <v>1584</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D124">
         <f t="shared" si="11"/>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="8"/>
-        <v>1548</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -6750,11 +6750,11 @@
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="7"/>
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="9"/>
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D125">
         <f t="shared" si="11"/>
@@ -6766,7 +6766,7 @@
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="8"/>
-        <v>1512</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -6775,11 +6775,11 @@
       </c>
       <c r="B126">
         <f t="shared" ref="B126:B189" ca="1" si="12">F125</f>
-        <v>1512</v>
+        <v>1482</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D126">
         <f t="shared" si="11"/>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="F126">
         <f t="shared" ref="F126:F189" ca="1" si="13">B126-C126+E126</f>
-        <v>1483</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -6800,11 +6800,11 @@
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="12"/>
-        <v>1483</v>
+        <v>1416</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D127">
         <f t="shared" si="11"/>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="13"/>
-        <v>1427</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -6825,11 +6825,11 @@
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="12"/>
-        <v>1427</v>
+        <v>1354</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D128">
         <f t="shared" si="11"/>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="13"/>
-        <v>1334</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -6850,11 +6850,11 @@
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="12"/>
-        <v>1334</v>
+        <v>1257</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="9"/>
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="D129">
         <f t="shared" si="11"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="13"/>
-        <v>1216</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -6875,11 +6875,11 @@
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="12"/>
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="9"/>
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="D130">
         <f t="shared" si="11"/>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="13"/>
-        <v>1113</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -6900,11 +6900,11 @@
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="12"/>
-        <v>1113</v>
+        <v>1153</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" ca="1" si="14">RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)</f>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D131">
         <f t="shared" si="11"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="F131">
         <f t="shared" ca="1" si="13"/>
-        <v>1047</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -6925,11 +6925,11 @@
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="12"/>
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="14"/>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D132">
         <f t="shared" si="11"/>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="13"/>
-        <v>959</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -6950,11 +6950,11 @@
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="12"/>
-        <v>959</v>
+        <v>1001</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D133">
         <f t="shared" si="11"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="13"/>
-        <v>906</v>
+        <v>980</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -6975,11 +6975,11 @@
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="12"/>
-        <v>906</v>
+        <v>980</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D134">
         <f t="shared" ref="D134:D197" si="16">$M$1</f>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="13"/>
-        <v>847</v>
+        <v>957</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7000,11 +7000,11 @@
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="12"/>
-        <v>847</v>
+        <v>957</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="14"/>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D135">
         <f t="shared" si="16"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="13"/>
-        <v>797</v>
+        <v>936</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7025,11 +7025,11 @@
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="12"/>
-        <v>797</v>
+        <v>936</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D136">
         <f t="shared" si="16"/>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="13"/>
-        <v>743</v>
+        <v>874</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="12"/>
-        <v>743</v>
+        <v>874</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="14"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="13"/>
-        <v>686</v>
+        <v>817</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -7075,11 +7075,11 @@
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="12"/>
-        <v>686</v>
+        <v>817</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="14"/>
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D138">
         <f t="shared" si="16"/>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="13"/>
-        <v>601</v>
+        <v>751</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7100,11 +7100,11 @@
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="12"/>
-        <v>601</v>
+        <v>751</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="14"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D139">
         <f t="shared" si="16"/>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="13"/>
-        <v>519</v>
+        <v>679</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -7125,11 +7125,11 @@
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="12"/>
-        <v>519</v>
+        <v>679</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D140">
         <f t="shared" si="16"/>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="13"/>
-        <v>484</v>
+        <v>585</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7150,11 +7150,11 @@
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="12"/>
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D141">
         <f t="shared" si="16"/>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="13"/>
-        <v>419</v>
+        <v>492</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -7175,11 +7175,11 @@
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="12"/>
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D142">
         <f t="shared" si="16"/>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="13"/>
-        <v>381</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -7200,11 +7200,11 @@
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="12"/>
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="14"/>
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D143">
         <f t="shared" si="16"/>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="13"/>
-        <v>269</v>
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -7225,11 +7225,11 @@
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="12"/>
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D144">
         <f t="shared" si="16"/>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="13"/>
-        <v>234</v>
+        <v>336</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -7250,11 +7250,11 @@
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="12"/>
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D145">
         <f t="shared" si="16"/>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="15"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="13"/>
-        <v>2180</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -7275,11 +7275,11 @@
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="12"/>
-        <v>2180</v>
+        <v>279</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="14"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D146">
         <f t="shared" si="16"/>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="13"/>
-        <v>2101</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -7300,11 +7300,11 @@
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="12"/>
-        <v>2101</v>
+        <v>198</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="14"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D147">
         <f t="shared" si="16"/>
@@ -7312,11 +7312,11 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="13"/>
-        <v>2058</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -7325,11 +7325,11 @@
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="12"/>
-        <v>2058</v>
+        <v>2912</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="14"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D148">
         <f t="shared" si="16"/>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="13"/>
-        <v>1971</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -7350,11 +7350,11 @@
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="12"/>
-        <v>1971</v>
+        <v>2841</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D149">
         <f t="shared" si="16"/>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="13"/>
-        <v>1906</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -7375,11 +7375,11 @@
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="12"/>
-        <v>1906</v>
+        <v>2760</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D150">
         <f t="shared" si="16"/>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="13"/>
-        <v>1871</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -7400,11 +7400,11 @@
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="12"/>
-        <v>1871</v>
+        <v>2677</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D151">
         <f t="shared" si="16"/>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="13"/>
-        <v>1817</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -7425,11 +7425,11 @@
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="12"/>
-        <v>1817</v>
+        <v>2601</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="14"/>
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D152">
         <f t="shared" si="16"/>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="13"/>
-        <v>1731</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -7450,11 +7450,11 @@
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="12"/>
-        <v>1731</v>
+        <v>2506</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="14"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D153">
         <f t="shared" si="16"/>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="13"/>
-        <v>1634</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -7475,11 +7475,11 @@
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="12"/>
-        <v>1634</v>
+        <v>2411</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="14"/>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D154">
         <f t="shared" si="16"/>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="13"/>
-        <v>1537</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -7500,11 +7500,11 @@
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="12"/>
-        <v>1537</v>
+        <v>2322</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="14"/>
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D155">
         <f t="shared" si="16"/>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="13"/>
-        <v>1451</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -7525,11 +7525,11 @@
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="12"/>
-        <v>1451</v>
+        <v>2215</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D156">
         <f t="shared" si="16"/>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="13"/>
-        <v>1392</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -7550,11 +7550,11 @@
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="12"/>
-        <v>1392</v>
+        <v>2142</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D157">
         <f t="shared" si="16"/>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="13"/>
-        <v>1331</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -7575,11 +7575,11 @@
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="12"/>
-        <v>1331</v>
+        <v>2095</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="14"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D158">
         <f t="shared" si="16"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="13"/>
-        <v>1261</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -7600,11 +7600,11 @@
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="12"/>
-        <v>1261</v>
+        <v>2037</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="14"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D159">
         <f t="shared" si="16"/>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="13"/>
-        <v>1187</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -7625,11 +7625,11 @@
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="12"/>
-        <v>1187</v>
+        <v>1974</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="14"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D160">
         <f t="shared" si="16"/>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="13"/>
-        <v>1102</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -7650,11 +7650,11 @@
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="12"/>
-        <v>1102</v>
+        <v>1912</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="14"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D161">
         <f t="shared" si="16"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="13"/>
-        <v>1034</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -7675,11 +7675,11 @@
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="12"/>
-        <v>1034</v>
+        <v>1838</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="14"/>
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D162">
         <f t="shared" si="16"/>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="13"/>
-        <v>919</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -7700,11 +7700,11 @@
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="12"/>
-        <v>919</v>
+        <v>1736</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D163">
         <f t="shared" si="16"/>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="13"/>
-        <v>856</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -7725,11 +7725,11 @@
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="12"/>
-        <v>856</v>
+        <v>1709</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="14"/>
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D164">
         <f t="shared" si="16"/>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="13"/>
-        <v>783</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -7750,11 +7750,11 @@
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="12"/>
-        <v>783</v>
+        <v>1593</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="14"/>
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D165">
         <f t="shared" si="16"/>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="13"/>
-        <v>707</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -7775,11 +7775,11 @@
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="12"/>
-        <v>707</v>
+        <v>1553</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D166">
         <f t="shared" si="16"/>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="13"/>
-        <v>643</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -7800,11 +7800,11 @@
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="12"/>
-        <v>643</v>
+        <v>1469</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D167">
         <f t="shared" si="16"/>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="13"/>
-        <v>594</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -7825,11 +7825,11 @@
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="12"/>
-        <v>594</v>
+        <v>1419</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="14"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D168">
         <f t="shared" si="16"/>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="13"/>
-        <v>541</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -7850,11 +7850,11 @@
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="12"/>
-        <v>541</v>
+        <v>1333</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="14"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D169">
         <f t="shared" si="16"/>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="13"/>
-        <v>483</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -7875,11 +7875,11 @@
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="12"/>
-        <v>483</v>
+        <v>1282</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="14"/>
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D170">
         <f t="shared" si="16"/>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="13"/>
-        <v>384</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -7900,11 +7900,11 @@
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="12"/>
-        <v>384</v>
+        <v>1237</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="14"/>
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D171">
         <f t="shared" si="16"/>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="13"/>
-        <v>295</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -7925,11 +7925,11 @@
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="12"/>
-        <v>295</v>
+        <v>1197</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D172">
         <f t="shared" si="16"/>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="13"/>
-        <v>272</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -7950,11 +7950,11 @@
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="12"/>
-        <v>272</v>
+        <v>1129</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="14"/>
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D173">
         <f t="shared" si="16"/>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="F173">
         <f t="shared" ca="1" si="13"/>
-        <v>171</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="12"/>
-        <v>171</v>
+        <v>1055</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="14"/>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D174">
         <f t="shared" si="16"/>
@@ -7987,11 +7987,11 @@
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="15"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <f t="shared" ca="1" si="13"/>
-        <v>2075</v>
+        <v>971</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -8000,11 +8000,11 @@
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="12"/>
-        <v>2075</v>
+        <v>971</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="14"/>
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D175">
         <f t="shared" si="16"/>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="13"/>
-        <v>2039</v>
+        <v>886</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -8025,11 +8025,11 @@
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="12"/>
-        <v>2039</v>
+        <v>886</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="14"/>
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D176">
         <f t="shared" si="16"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="F176">
         <f t="shared" ca="1" si="13"/>
-        <v>1957</v>
+        <v>771</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -8050,11 +8050,11 @@
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="12"/>
-        <v>1957</v>
+        <v>771</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D177">
         <f t="shared" si="16"/>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="F177">
         <f t="shared" ca="1" si="13"/>
-        <v>1890</v>
+        <v>702</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -8075,11 +8075,11 @@
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="12"/>
-        <v>1890</v>
+        <v>702</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D178">
         <f t="shared" si="16"/>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="13"/>
-        <v>1866</v>
+        <v>612</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -8100,11 +8100,11 @@
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="12"/>
-        <v>1866</v>
+        <v>612</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D179">
         <f t="shared" si="16"/>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="F179">
         <f t="shared" ca="1" si="13"/>
-        <v>1847</v>
+        <v>558</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -8125,11 +8125,11 @@
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="12"/>
-        <v>1847</v>
+        <v>558</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="14"/>
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D180">
         <f t="shared" si="16"/>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="13"/>
-        <v>1781</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -8150,11 +8150,11 @@
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="12"/>
-        <v>1781</v>
+        <v>501</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="14"/>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D181">
         <f t="shared" si="16"/>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="13"/>
-        <v>1725</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -8175,11 +8175,11 @@
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="12"/>
-        <v>1725</v>
+        <v>434</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D182">
         <f t="shared" si="16"/>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="F182">
         <f t="shared" ca="1" si="13"/>
-        <v>1658</v>
+        <v>407</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -8200,11 +8200,11 @@
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="12"/>
-        <v>1658</v>
+        <v>407</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="14"/>
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D183">
         <f t="shared" si="16"/>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="13"/>
-        <v>1577</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -8225,11 +8225,11 @@
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="12"/>
-        <v>1577</v>
+        <v>371</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D184">
         <f t="shared" si="16"/>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="F184">
         <f t="shared" ca="1" si="13"/>
-        <v>1514</v>
+        <v>300</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -8250,11 +8250,11 @@
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="12"/>
-        <v>1514</v>
+        <v>300</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D185">
         <f t="shared" si="16"/>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="F185">
         <f t="shared" ca="1" si="13"/>
-        <v>1483</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -8275,11 +8275,11 @@
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="12"/>
-        <v>1483</v>
+        <v>208</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D186">
         <f t="shared" si="16"/>
@@ -8287,11 +8287,11 @@
       </c>
       <c r="E186">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F186">
         <f t="shared" ca="1" si="13"/>
-        <v>1449</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -8300,11 +8300,11 @@
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="12"/>
-        <v>1449</v>
+        <v>2167</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="14"/>
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D187">
         <f t="shared" si="16"/>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="F187">
         <f t="shared" ca="1" si="13"/>
-        <v>1367</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -8325,11 +8325,11 @@
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="12"/>
-        <v>1367</v>
+        <v>2131</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="14"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D188">
         <f t="shared" si="16"/>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="F188">
         <f t="shared" ca="1" si="13"/>
-        <v>1279</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -8350,11 +8350,11 @@
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="12"/>
-        <v>1279</v>
+        <v>2075</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="14"/>
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="D189">
         <f t="shared" si="16"/>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="F189">
         <f t="shared" ca="1" si="13"/>
-        <v>1167</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -8375,11 +8375,11 @@
       </c>
       <c r="B190">
         <f t="shared" ref="B190:B202" ca="1" si="17">F189</f>
-        <v>1167</v>
+        <v>2018</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D190">
         <f t="shared" si="16"/>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="F190">
         <f t="shared" ref="F190:F202" ca="1" si="18">B190-C190+E190</f>
-        <v>1100</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -8400,11 +8400,11 @@
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="17"/>
-        <v>1100</v>
+        <v>1947</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D191">
         <f t="shared" si="16"/>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="F191">
         <f t="shared" ca="1" si="18"/>
-        <v>1036</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="17"/>
-        <v>1036</v>
+        <v>1882</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D192">
         <f t="shared" si="16"/>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="F192">
         <f t="shared" ca="1" si="18"/>
-        <v>973</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -8450,11 +8450,11 @@
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="17"/>
-        <v>973</v>
+        <v>1784</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="14"/>
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D193">
         <f t="shared" si="16"/>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="F193">
         <f t="shared" ca="1" si="18"/>
-        <v>902</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -8475,11 +8475,11 @@
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="17"/>
-        <v>902</v>
+        <v>1744</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D194">
         <f t="shared" si="16"/>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="F194">
         <f t="shared" ca="1" si="18"/>
-        <v>837</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -8500,23 +8500,23 @@
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="17"/>
-        <v>837</v>
+        <v>1658</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C215" ca="1" si="19">RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)</f>
-        <v>41</v>
+        <f t="shared" ref="C195:C214" ca="1" si="19">RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)+RANDBETWEEN(0, $M$1)</f>
+        <v>79</v>
       </c>
       <c r="D195">
         <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E215" ca="1" si="20">IF(F194&lt;$B$2*0.1, ROUND(RANDBETWEEN(8, 12) * 0.1 * $B$2, 0), 0)</f>
+        <f t="shared" ref="E195:E214" ca="1" si="20">IF(F194&lt;$B$2*0.1, ROUND(RANDBETWEEN(8, 12) * 0.1 * $B$2, 0), 0)</f>
         <v>0</v>
       </c>
       <c r="F195">
         <f t="shared" ca="1" si="18"/>
-        <v>796</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -8525,11 +8525,11 @@
       </c>
       <c r="B196">
         <f t="shared" ca="1" si="17"/>
-        <v>796</v>
+        <v>1579</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="19"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D196">
         <f t="shared" si="16"/>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F196">
         <f t="shared" ca="1" si="18"/>
-        <v>735</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -8550,11 +8550,11 @@
       </c>
       <c r="B197">
         <f t="shared" ca="1" si="17"/>
-        <v>735</v>
+        <v>1528</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="19"/>
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D197">
         <f t="shared" si="16"/>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="F197">
         <f t="shared" ca="1" si="18"/>
-        <v>686</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -8575,14 +8575,14 @@
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="17"/>
-        <v>686</v>
+        <v>1436</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="19"/>
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D198">
-        <f t="shared" ref="D198:D215" si="21">$M$1</f>
+        <f t="shared" ref="D198:D214" si="21">$M$1</f>
         <v>45</v>
       </c>
       <c r="E198">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="F198">
         <f t="shared" ca="1" si="18"/>
-        <v>627</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -8600,11 +8600,11 @@
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="17"/>
-        <v>627</v>
+        <v>1336</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="19"/>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D199">
         <f t="shared" si="21"/>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="F199">
         <f t="shared" ca="1" si="18"/>
-        <v>595</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -8625,11 +8625,11 @@
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="17"/>
-        <v>595</v>
+        <v>1254</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="19"/>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D200">
         <f t="shared" si="21"/>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="F200">
         <f t="shared" ca="1" si="18"/>
-        <v>510</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -8650,11 +8650,11 @@
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="17"/>
-        <v>510</v>
+        <v>1157</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="19"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D201">
         <f t="shared" si="21"/>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="F201">
         <f t="shared" ca="1" si="18"/>
-        <v>415</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -8675,11 +8675,11 @@
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="17"/>
-        <v>415</v>
+        <v>1101</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="19"/>
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D202">
         <f t="shared" si="21"/>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="F202">
         <f t="shared" ca="1" si="18"/>
-        <v>314</v>
+        <v>991</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -8699,12 +8699,12 @@
         <v>45524</v>
       </c>
       <c r="B203">
-        <f t="shared" ref="B203:B215" ca="1" si="22">F202</f>
-        <v>314</v>
+        <f t="shared" ref="B203:B214" ca="1" si="22">F202</f>
+        <v>991</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="19"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D203">
         <f t="shared" si="21"/>
@@ -8715,8 +8715,8 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <f t="shared" ref="F203:F215" ca="1" si="23">B203-C203+E203</f>
-        <v>262</v>
+        <f t="shared" ref="F203:F214" ca="1" si="23">B203-C203+E203</f>
+        <v>905</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -8725,11 +8725,11 @@
       </c>
       <c r="B204">
         <f t="shared" ca="1" si="22"/>
-        <v>262</v>
+        <v>905</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="19"/>
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D204">
         <f t="shared" si="21"/>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F204">
         <f t="shared" ca="1" si="23"/>
-        <v>172</v>
+        <v>872</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -8750,11 +8750,11 @@
       </c>
       <c r="B205">
         <f t="shared" ca="1" si="22"/>
-        <v>172</v>
+        <v>872</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="19"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D205">
         <f t="shared" si="21"/>
@@ -8762,11 +8762,11 @@
       </c>
       <c r="E205">
         <f t="shared" ca="1" si="20"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F205">
         <f t="shared" ca="1" si="23"/>
-        <v>2617</v>
+        <v>775</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -8775,11 +8775,11 @@
       </c>
       <c r="B206">
         <f t="shared" ca="1" si="22"/>
-        <v>2617</v>
+        <v>775</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="19"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D206">
         <f t="shared" si="21"/>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="F206">
         <f t="shared" ca="1" si="23"/>
-        <v>2557</v>
+        <v>713</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -8800,11 +8800,11 @@
       </c>
       <c r="B207">
         <f t="shared" ca="1" si="22"/>
-        <v>2557</v>
+        <v>713</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="19"/>
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D207">
         <f t="shared" si="21"/>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="F207">
         <f t="shared" ca="1" si="23"/>
-        <v>2514</v>
+        <v>623</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -8825,11 +8825,11 @@
       </c>
       <c r="B208">
         <f t="shared" ca="1" si="22"/>
-        <v>2514</v>
+        <v>623</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="19"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D208">
         <f t="shared" si="21"/>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="F208">
         <f t="shared" ca="1" si="23"/>
-        <v>2452</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -8850,11 +8850,11 @@
       </c>
       <c r="B209">
         <f t="shared" ca="1" si="22"/>
-        <v>2452</v>
+        <v>571</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="19"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D209">
         <f t="shared" si="21"/>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="F209">
         <f t="shared" ca="1" si="23"/>
-        <v>2369</v>
+        <v>498</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -8875,11 +8875,11 @@
       </c>
       <c r="B210">
         <f t="shared" ca="1" si="22"/>
-        <v>2369</v>
+        <v>498</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="19"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D210">
         <f t="shared" si="21"/>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="F210">
         <f t="shared" ca="1" si="23"/>
-        <v>2305</v>
+        <v>430</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -8900,11 +8900,11 @@
       </c>
       <c r="B211">
         <f t="shared" ca="1" si="22"/>
-        <v>2305</v>
+        <v>430</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="19"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D211">
         <f t="shared" si="21"/>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="F211">
         <f t="shared" ca="1" si="23"/>
-        <v>2208</v>
+        <v>367</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -8925,11 +8925,11 @@
       </c>
       <c r="B212">
         <f t="shared" ca="1" si="22"/>
-        <v>2208</v>
+        <v>367</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="19"/>
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D212">
         <f t="shared" si="21"/>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="F212">
         <f t="shared" ca="1" si="23"/>
-        <v>2187</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -8950,11 +8950,11 @@
       </c>
       <c r="B213">
         <f t="shared" ca="1" si="22"/>
-        <v>2187</v>
+        <v>298</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="19"/>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D213">
         <f t="shared" si="21"/>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="F213">
         <f t="shared" ca="1" si="23"/>
-        <v>2148</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -8975,11 +8975,11 @@
       </c>
       <c r="B214">
         <f t="shared" ca="1" si="22"/>
-        <v>2148</v>
+        <v>250</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="19"/>
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="D214">
         <f t="shared" si="21"/>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="F214">
         <f t="shared" ca="1" si="23"/>
-        <v>2111</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -9005,7 +9005,7 @@
   <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
